--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2026.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2026.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.151644200449025</v>
+        <v>1.167466163635254</v>
       </c>
       <c r="B1">
-        <v>2.331744342718151</v>
+        <v>2.491630554199219</v>
       </c>
       <c r="C1">
-        <v>6.930017675716885</v>
+        <v>6.674103260040283</v>
       </c>
       <c r="D1">
-        <v>2.395309366423779</v>
+        <v>2.05537748336792</v>
       </c>
       <c r="E1">
-        <v>1.227499470412031</v>
+        <v>1.20969033241272</v>
       </c>
     </row>
   </sheetData>
